--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Ukraine_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Ukraine_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G327"/>
+  <dimension ref="A1:G330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8626,6 +8626,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>ECONOMICS:UAM2</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>2557633000000</v>
+      </c>
+      <c r="D328" t="n">
+        <v>2557633000000</v>
+      </c>
+      <c r="E328" t="n">
+        <v>2557633000000</v>
+      </c>
+      <c r="F328" t="n">
+        <v>2557633000000</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>ECONOMICS:UAM2</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>2617988000000</v>
+      </c>
+      <c r="D329" t="n">
+        <v>2617988000000</v>
+      </c>
+      <c r="E329" t="n">
+        <v>2617988000000</v>
+      </c>
+      <c r="F329" t="n">
+        <v>2617988000000</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>ECONOMICS:UAM2</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>2658844000000</v>
+      </c>
+      <c r="D330" t="n">
+        <v>2658844000000</v>
+      </c>
+      <c r="E330" t="n">
+        <v>2658844000000</v>
+      </c>
+      <c r="F330" t="n">
+        <v>2658844000000</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Ukraine_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Ukraine_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G330"/>
+  <dimension ref="A1:G331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -8698,6 +8698,31 @@
         <v>2658844000000</v>
       </c>
       <c r="G330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>ECONOMICS:UAM2</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>2727991000000</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2727991000000</v>
+      </c>
+      <c r="E331" t="n">
+        <v>2727991000000</v>
+      </c>
+      <c r="F331" t="n">
+        <v>2727991000000</v>
+      </c>
+      <c r="G331" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Ukraine_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Ukraine_M2.xlsx
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Ukraine_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Ukraine_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G331"/>
+  <dimension ref="A1:G334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8726,6 +8726,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>ECONOMICS:UAM2</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>2785163000000</v>
+      </c>
+      <c r="D332" t="n">
+        <v>2785163000000</v>
+      </c>
+      <c r="E332" t="n">
+        <v>2785163000000</v>
+      </c>
+      <c r="F332" t="n">
+        <v>2785163000000</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>ECONOMICS:UAM2</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>2785350000000</v>
+      </c>
+      <c r="D333" t="n">
+        <v>2785350000000</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2785350000000</v>
+      </c>
+      <c r="F333" t="n">
+        <v>2785350000000</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>ECONOMICS:UAM2</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>2798142000000</v>
+      </c>
+      <c r="D334" t="n">
+        <v>2798142000000</v>
+      </c>
+      <c r="E334" t="n">
+        <v>2798142000000</v>
+      </c>
+      <c r="F334" t="n">
+        <v>2798142000000</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Ukraine_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Ukraine_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G334"/>
+  <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8089,6 +8089,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335">
+        <v>2812061000000</v>
+      </c>
+      <c r="D335">
+        <v>2812061000000</v>
+      </c>
+      <c r="E335">
+        <v>2812061000000</v>
+      </c>
+      <c r="F335">
+        <v>2812061000000</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
